--- a/my_recipes.xlsx
+++ b/my_recipes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2517bdd4b374292c/CE/MS NWU/Classes/MSDS 460/Assignment 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1140" documentId="13_ncr:1_{CEC7152F-6C50-4448-B1DE-5434C5CB3B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE16216B-7AC5-4FFC-8A03-99B5C6F4E396}"/>
+  <xr:revisionPtr revIDLastSave="1142" documentId="13_ncr:1_{CEC7152F-6C50-4448-B1DE-5434C5CB3B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{790C19E4-BEF3-47D2-87BE-03941AB1E0E6}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{1AF2DE59-50A1-4ECE-803F-AE21D385ACAB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{1AF2DE59-50A1-4ECE-803F-AE21D385ACAB}"/>
   </bookViews>
   <sheets>
     <sheet name="recipes" sheetId="5" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="146">
   <si>
     <t>recipe_name</t>
   </si>
@@ -470,6 +470,12 @@
   </si>
   <si>
     <t>Horizon Organic 2% Reduced Fat Milk with DHA Omega-3, 64 Fl Oz = $7.29</t>
+  </si>
+  <si>
+    <t>Links</t>
+  </si>
+  <si>
+    <t>https://www.nutritionix.com/food/greek-omelette</t>
   </si>
 </sst>
 </file>
@@ -592,35 +598,26 @@
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -628,6 +625,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -963,10 +969,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9A33584-351A-4107-AFDA-BF778DEA35A3}">
-  <dimension ref="A1:L55"/>
+  <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -985,139 +991,139 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="6" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="11">
         <v>543</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="11">
         <f>25+456</f>
         <v>481</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="11">
         <f>3.5+30</f>
         <v>33.5</v>
       </c>
-      <c r="G2" s="14">
+      <c r="G2" s="11">
         <f>3.4+463</f>
         <v>466.4</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2" s="11">
         <f>5.7+1338</f>
         <v>1343.7</v>
       </c>
-      <c r="I2" s="14">
+      <c r="I2" s="11">
         <f>360.6+1648.2</f>
         <v>2008.8000000000002</v>
       </c>
-      <c r="J2" s="14">
+      <c r="J2" s="11">
         <f>0.57+9.2</f>
         <v>9.77</v>
       </c>
-      <c r="K2" s="14">
+      <c r="K2" s="11">
         <f>0.23+3.1</f>
         <v>3.33</v>
       </c>
-      <c r="L2" s="14">
+      <c r="L2" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15">
-        <f>SUM(E2:E2)</f>
+      <c r="A3" s="11"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12">
+        <f t="shared" ref="E3:L3" si="0">SUM(E2:E2)</f>
         <v>481</v>
       </c>
-      <c r="F3" s="15">
-        <f>SUM(F2:F2)</f>
+      <c r="F3" s="12">
+        <f t="shared" si="0"/>
         <v>33.5</v>
       </c>
-      <c r="G3" s="15">
-        <f>SUM(G2:G2)</f>
+      <c r="G3" s="12">
+        <f t="shared" si="0"/>
         <v>466.4</v>
       </c>
-      <c r="H3" s="15">
-        <f>SUM(H2:H2)</f>
+      <c r="H3" s="12">
+        <f t="shared" si="0"/>
         <v>1343.7</v>
       </c>
-      <c r="I3" s="15">
-        <f>SUM(I2:I2)</f>
+      <c r="I3" s="12">
+        <f t="shared" si="0"/>
         <v>2008.8000000000002</v>
       </c>
-      <c r="J3" s="15">
-        <f>SUM(J2:J2)</f>
+      <c r="J3" s="12">
+        <f t="shared" si="0"/>
         <v>9.77</v>
       </c>
-      <c r="K3" s="15">
-        <f>SUM(K2:K2)</f>
+      <c r="K3" s="12">
+        <f t="shared" si="0"/>
         <v>3.33</v>
       </c>
-      <c r="L3" s="15">
-        <f>SUM(L2:L2)</f>
+      <c r="L3" s="12">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1632,16 +1638,16 @@
       <c r="F18">
         <v>0.05</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="7">
         <v>5</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="7">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I18" s="10">
+      <c r="I18" s="7">
         <v>3.2</v>
       </c>
-      <c r="J18" s="10">
+      <c r="J18" s="7">
         <v>0.26</v>
       </c>
       <c r="K18">
@@ -1804,36 +1810,36 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E23" s="11">
+      <c r="E23" s="8">
         <f>SUM(E5:E22)</f>
         <v>855.17</v>
       </c>
-      <c r="F23" s="11">
-        <f t="shared" ref="F23:L23" si="0">SUM(F5:F22)</f>
+      <c r="F23" s="8">
+        <f t="shared" ref="F23:L23" si="1">SUM(F5:F22)</f>
         <v>45.929999999999993</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G23" s="8">
         <f>SUM(G5:G22)</f>
         <v>1457.5400000000002</v>
       </c>
-      <c r="H23" s="11">
-        <f t="shared" si="0"/>
+      <c r="H23" s="8">
+        <f t="shared" si="1"/>
         <v>2962.98</v>
       </c>
-      <c r="I23" s="11">
-        <f t="shared" si="0"/>
+      <c r="I23" s="8">
+        <f t="shared" si="1"/>
         <v>1142.24</v>
       </c>
-      <c r="J23" s="11">
-        <f t="shared" si="0"/>
+      <c r="J23" s="8">
+        <f t="shared" si="1"/>
         <v>10.469999999999997</v>
       </c>
-      <c r="K23" s="11">
-        <f t="shared" si="0"/>
+      <c r="K23" s="8">
+        <f t="shared" si="1"/>
         <v>0.36000000000000004</v>
       </c>
-      <c r="L23" s="11">
-        <f t="shared" si="0"/>
+      <c r="L23" s="8">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2372,36 +2378,36 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E40" s="11">
+      <c r="E40" s="8">
         <f>SUM(E26:E39)</f>
         <v>395.33</v>
       </c>
-      <c r="F40" s="11">
-        <f t="shared" ref="F40:L40" si="1">SUM(F26:F39)</f>
+      <c r="F40" s="8">
+        <f t="shared" ref="F40:L40" si="2">SUM(F26:F39)</f>
         <v>22.880000000000003</v>
       </c>
-      <c r="G40" s="11">
-        <f t="shared" si="1"/>
+      <c r="G40" s="8">
+        <f t="shared" si="2"/>
         <v>209.47</v>
       </c>
-      <c r="H40" s="11">
-        <f t="shared" si="1"/>
+      <c r="H40" s="8">
+        <f t="shared" si="2"/>
         <v>2426.25</v>
       </c>
-      <c r="I40" s="11">
-        <f t="shared" si="1"/>
+      <c r="I40" s="8">
+        <f t="shared" si="2"/>
         <v>1031.92</v>
       </c>
-      <c r="J40" s="11">
-        <f t="shared" si="1"/>
+      <c r="J40" s="8">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="K40" s="11">
-        <f t="shared" si="1"/>
+      <c r="K40" s="8">
+        <f t="shared" si="2"/>
         <v>12.7</v>
       </c>
-      <c r="L40" s="11">
-        <f t="shared" si="1"/>
+      <c r="L40" s="8">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2482,48 +2488,48 @@
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E44" s="11">
-        <f>SUM(E42:E43)</f>
+      <c r="E44" s="8">
+        <f t="shared" ref="E44:L44" si="3">SUM(E42:E43)</f>
         <v>261</v>
       </c>
-      <c r="F44" s="11">
-        <f>SUM(F42:F43)</f>
+      <c r="F44" s="8">
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="G44" s="11">
-        <f>SUM(G42:G43)</f>
+      <c r="G44" s="8">
+        <f t="shared" si="3"/>
         <v>166.4</v>
       </c>
-      <c r="H44" s="11">
-        <f>SUM(H42:H43)</f>
+      <c r="H44" s="8">
+        <f t="shared" si="3"/>
         <v>97.3</v>
       </c>
-      <c r="I44" s="11">
-        <f>SUM(I42:I43)</f>
+      <c r="I44" s="8">
+        <f t="shared" si="3"/>
         <v>350.8</v>
       </c>
-      <c r="J44" s="11">
-        <f>SUM(J42:J43)</f>
+      <c r="J44" s="8">
+        <f t="shared" si="3"/>
         <v>1.62</v>
       </c>
-      <c r="K44" s="11">
-        <f>SUM(K42:K43)</f>
+      <c r="K44" s="8">
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
-      <c r="L44" s="11">
-        <f>SUM(L42:L43)</f>
+      <c r="L44" s="8">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="12"/>
-      <c r="K47" s="12"/>
-      <c r="L47" s="12"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
@@ -2563,7 +2569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>79</v>
       </c>
@@ -2598,7 +2604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>80</v>
       </c>
@@ -2633,7 +2639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>81</v>
       </c>
@@ -2668,7 +2674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>82</v>
       </c>
@@ -2703,7 +2709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>83</v>
       </c>
@@ -2738,7 +2744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>84</v>
       </c>
@@ -2773,38 +2779,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E55" s="11">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E55" s="8">
         <f>SUM(E48:E54)</f>
         <v>345.01</v>
       </c>
-      <c r="F55" s="11">
-        <f t="shared" ref="F55:L55" si="2">SUM(F48:F54)</f>
+      <c r="F55" s="8">
+        <f t="shared" ref="F55:L55" si="4">SUM(F48:F54)</f>
         <v>35.32</v>
       </c>
-      <c r="G55" s="11">
-        <f t="shared" si="2"/>
+      <c r="G55" s="8">
+        <f t="shared" si="4"/>
         <v>32.04</v>
       </c>
-      <c r="H55" s="11">
-        <f t="shared" si="2"/>
+      <c r="H55" s="8">
+        <f t="shared" si="4"/>
         <v>718.74</v>
       </c>
-      <c r="I55" s="11">
-        <f t="shared" si="2"/>
+      <c r="I55" s="8">
+        <f t="shared" si="4"/>
         <v>665.84</v>
       </c>
-      <c r="J55" s="11">
-        <f t="shared" si="2"/>
+      <c r="J55" s="8">
+        <f t="shared" si="4"/>
         <v>1.0900000000000001</v>
       </c>
-      <c r="K55" s="11">
-        <f t="shared" si="2"/>
+      <c r="K55" s="8">
+        <f t="shared" si="4"/>
         <v>18.5</v>
       </c>
-      <c r="L55" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="L55" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -2831,13 +2847,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -3175,7 +3191,7 @@
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="17">
+      <c r="E21" s="14">
         <f>SUM(E3:E20)</f>
         <v>9.5249999999999986</v>
       </c>
@@ -3187,13 +3203,13 @@
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
@@ -3557,7 +3573,7 @@
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
-      <c r="E45" s="17">
+      <c r="E45" s="14">
         <f>SUM(E25:E44)</f>
         <v>6.5</v>
       </c>
@@ -3569,13 +3585,13 @@
       <c r="D46" s="1"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
@@ -3837,7 +3853,7 @@
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
-      <c r="E63" s="17">
+      <c r="E63" s="14">
         <f>SUM(E49:E62)</f>
         <v>14.789999999999997</v>
       </c>
@@ -3849,13 +3865,13 @@
       <c r="D64" s="1"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="6" t="s">
+      <c r="A65" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B65" s="6"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="19"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
@@ -3924,19 +3940,19 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E70" s="17">
+      <c r="E70" s="14">
         <f>SUM(E67:E69)</f>
         <v>0.17</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="8" t="s">
+      <c r="A72" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="B72" s="8"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
-      <c r="E72" s="8"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="18"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
@@ -4068,7 +4084,7 @@
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
-      <c r="E81" s="16">
+      <c r="E81" s="13">
         <f>SUM(E74:E80)</f>
         <v>6.7399999999999993</v>
       </c>
@@ -4088,13 +4104,13 @@
       <c r="E83" s="5"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="8" t="s">
+      <c r="A84" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="B84" s="8"/>
-      <c r="C84" s="8"/>
-      <c r="D84" s="8"/>
-      <c r="E84" s="8"/>
+      <c r="B84" s="18"/>
+      <c r="C84" s="18"/>
+      <c r="D84" s="18"/>
+      <c r="E84" s="18"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
@@ -4250,19 +4266,19 @@
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E94" s="17">
+      <c r="E94" s="14">
         <f>SUM(E86:E93)</f>
         <v>5.6984000000000004</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="8" t="s">
+      <c r="A97" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="B97" s="8"/>
-      <c r="C97" s="8"/>
-      <c r="D97" s="8"/>
-      <c r="E97" s="8"/>
+      <c r="B97" s="18"/>
+      <c r="C97" s="18"/>
+      <c r="D97" s="18"/>
+      <c r="E97" s="18"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
@@ -4389,19 +4405,19 @@
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E106" s="17">
+      <c r="E106" s="14">
         <f>SUM(E99:E105)</f>
         <v>4.4480000000000004</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="8" t="s">
+      <c r="A112" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="B112" s="8"/>
-      <c r="C112" s="8"/>
-      <c r="D112" s="8"/>
-      <c r="E112" s="8"/>
+      <c r="B112" s="18"/>
+      <c r="C112" s="18"/>
+      <c r="D112" s="18"/>
+      <c r="E112" s="18"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
@@ -4487,14 +4503,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A72:E72"/>
     <mergeCell ref="A84:E84"/>
     <mergeCell ref="A97:E97"/>
     <mergeCell ref="A112:E112"/>
     <mergeCell ref="A65:E65"/>
     <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A72:E72"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4549,7 +4565,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="15" t="s">
         <v>127</v>
       </c>
       <c r="B2" s="4">
@@ -4581,7 +4597,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="17" t="s">
         <v>126</v>
       </c>
       <c r="B3" s="4">
@@ -4613,7 +4629,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="17" t="s">
         <v>48</v>
       </c>
       <c r="B4" s="4">
@@ -4645,7 +4661,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="17" t="s">
         <v>78</v>
       </c>
       <c r="B5" s="4">
@@ -4677,7 +4693,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="17" t="s">
         <v>140</v>
       </c>
       <c r="B6" s="4">
